--- a/data/match_result/SCAN000702-1/frontend.xlsx
+++ b/data/match_result/SCAN000702-1/frontend.xlsx
@@ -34,7 +34,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>7.2238</t>
+    <t>3.2107</t>
   </si>
   <si>
     <t>225</t>
@@ -55,7 +55,49 @@
     <t>2</t>
   </si>
   <si>
-    <t>6.6986</t>
+    <t>3.1159</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>[[361.8841948  185.83696815]
+ [215.1478396  211.71054662]
+ [189.27426113  64.97419142]
+ [336.01061633  39.10061295]]</t>
+  </si>
+  <si>
+    <t>[[ 50. 300.]
+ [199. 300.]
+ [199. 449.]
+ [ 50. 449.]]</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>2.9229</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>[[169.33759604 115.75573749]
+ [283.47821806  19.98038365]
+ [379.25357191 134.12100567]
+ [265.11294988 229.89635952]]</t>
+  </si>
+  <si>
+    <t>[[150. 150.]
+ [299. 150.]
+ [299. 299.]
+ [150. 299.]]</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>2.9177</t>
   </si>
   <si>
     <t>323</t>
@@ -73,31 +115,31 @@
  [500. 349.]]</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>6.5568</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>[[361.8841948  185.83696815]
- [215.1478396  211.71054662]
- [189.27426113  64.97419142]
- [336.01061633  39.10061295]]</t>
-  </si>
-  <si>
-    <t>[[ 50. 300.]
- [199. 300.]
- [199. 449.]
- [ 50. 449.]]</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>6.4627</t>
+    <t>5</t>
+  </si>
+  <si>
+    <t>2.8979</t>
+  </si>
+  <si>
+    <t>380</t>
+  </si>
+  <si>
+    <t>[[377.45190528 152.45190528]
+ [248.41412012 226.95190528]
+ [173.91412012  97.91412012]
+ [302.95190528  23.41412012]]</t>
+  </si>
+  <si>
+    <t>[[  0. 150.]
+ [149. 150.]
+ [149. 299.]
+ [  0. 299.]]</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>2.8928</t>
   </si>
   <si>
     <t>376</t>
@@ -115,31 +157,10 @@
  [  0. 349.]]</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>6.4279</t>
-  </si>
-  <si>
-    <t>380</t>
-  </si>
-  <si>
-    <t>[[377.45190528 152.45190528]
- [248.41412012 226.95190528]
- [173.91412012  97.91412012]
- [302.95190528  23.41412012]]</t>
-  </si>
-  <si>
-    <t>[[  0. 150.]
- [149. 150.]
- [149. 299.]
- [  0. 299.]]</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>6.4141</t>
+    <t>7</t>
+  </si>
+  <si>
+    <t>2.8574</t>
   </si>
   <si>
     <t>88</t>
@@ -157,13 +178,52 @@
  [150. 149.]]</t>
   </si>
   <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>6.3017</t>
-  </si>
-  <si>
-    <t>119</t>
+    <t>8</t>
+  </si>
+  <si>
+    <t>2.8381</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>[[  0. 250.]
+ [149. 250.]
+ [149. 399.]
+ [  0. 399.]]</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>2.8297</t>
+  </si>
+  <si>
+    <t>181</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>2.8048</t>
+  </si>
+  <si>
+    <t>172</t>
+  </si>
+  <si>
+    <t>[[150. 200.]
+ [299. 200.]
+ [299. 349.]
+ [150. 349.]]</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>2.7997</t>
+  </si>
+  <si>
+    <t>338</t>
   </si>
   <si>
     <t>[[380.66240396 134.24426251]
@@ -172,85 +232,16 @@
  [284.88705012  20.10364048]]</t>
   </si>
   <si>
-    <t>[[150. 200.]
- [299. 200.]
- [299. 349.]
- [150. 349.]]</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>6.1785</t>
-  </si>
-  <si>
-    <t>181</t>
-  </si>
-  <si>
-    <t>[[  0. 250.]
- [149. 250.]
- [149. 399.]
- [  0. 399.]]</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>6.1543</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>6.1071</t>
-  </si>
-  <si>
-    <t>288</t>
-  </si>
-  <si>
     <t>[[ 50. 400.]
  [199. 400.]
  [199. 549.]
  [ 50. 549.]]</t>
   </si>
   <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>6.0671</t>
-  </si>
-  <si>
-    <t>338</t>
-  </si>
-  <si>
     <t>12</t>
   </si>
   <si>
-    <t>5.9932</t>
-  </si>
-  <si>
-    <t>116</t>
-  </si>
-  <si>
-    <t>[[319.82543581  28.87154269]
- [370.78643717 168.88574319]
- [230.77223667 219.84674454]
- [179.81123531  79.83254405]]</t>
-  </si>
-  <si>
-    <t>[[  0.  50.]
- [149.  50.]
- [149. 199.]
- [  0. 199.]]</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>5.9469</t>
+    <t>2.7943</t>
   </si>
   <si>
     <t>113</t>
@@ -262,10 +253,10 @@
  [379.89635952 134.88705012]]</t>
   </si>
   <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>5.9310</t>
+    <t>13</t>
+  </si>
+  <si>
+    <t>2.7789</t>
   </si>
   <si>
     <t>205</t>
@@ -283,37 +274,76 @@
  [250. 249.]]</t>
   </si>
   <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>2.7533</t>
+  </si>
+  <si>
+    <t>288</t>
+  </si>
+  <si>
     <t>15</t>
   </si>
   <si>
-    <t>5.8734</t>
+    <t>2.7027</t>
+  </si>
+  <si>
+    <t>144</t>
+  </si>
+  <si>
+    <t>[[300. 100.]
+ [449. 100.]
+ [449. 249.]
+ [300. 249.]]</t>
   </si>
   <si>
     <t>16</t>
   </si>
   <si>
-    <t>5.8420</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>[[169.33759604 115.75573749]
- [283.47821806  19.98038365]
- [379.25357191 134.12100567]
- [265.11294988 229.89635952]]</t>
-  </si>
-  <si>
-    <t>[[150. 150.]
- [299. 150.]
- [299. 299.]
- [150. 299.]]</t>
+    <t>2.6230</t>
+  </si>
+  <si>
+    <t>119</t>
+  </si>
+  <si>
+    <t>[[350. 200.]
+ [201. 200.]
+ [201.  51.]
+ [350.  51.]]</t>
   </si>
   <si>
     <t>17</t>
   </si>
   <si>
-    <t>5.8099</t>
+    <t>2.6039</t>
+  </si>
+  <si>
+    <t>[[284.24426251 230.66240396]
+ [170.10364048 134.88705012]
+ [265.87899433  20.74642809]
+ [380.01961635 116.52178194]]</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>2.5975</t>
+  </si>
+  <si>
+    <t>220</t>
+  </si>
+  <si>
+    <t>[[300. 250.]
+ [449. 250.]
+ [449. 399.]
+ [300. 399.]]</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>2.5958</t>
   </si>
   <si>
     <t>84</t>
@@ -331,49 +361,19 @@
  [150. 449.]]</t>
   </si>
   <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>5.7952</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>[[150. 250.]
- [299. 250.]
- [299. 399.]
- [150. 399.]]</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>5.7903</t>
-  </si>
-  <si>
-    <t>172</t>
-  </si>
-  <si>
     <t>20</t>
   </si>
   <si>
-    <t>5.7181</t>
-  </si>
-  <si>
-    <t>247</t>
-  </si>
-  <si>
-    <t>[[247.54809472  22.54809472]
- [376.58587988  97.04809472]
- [302.08587988 226.08587988]
- [173.04809472 151.58587988]]</t>
-  </si>
-  <si>
-    <t>[[150. 100.]
- [299. 100.]
- [299. 249.]
- [150. 249.]]</t>
+    <t>2.5957</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>[[  0. 300.]
+ [149. 300.]
+ [149. 449.]
+ [  0. 449.]]</t>
   </si>
 </sst>
 </file>
@@ -868,7 +868,7 @@
         <v>42</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E9" t="s">
         <v>43</v>
@@ -885,7 +885,7 @@
         <v>46</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E10" t="s">
         <v>43</v>
@@ -902,7 +902,7 @@
         <v>49</v>
       </c>
       <c r="D11" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="E11" t="s">
         <v>50</v>
@@ -919,61 +919,61 @@
         <v>53</v>
       </c>
       <c r="D12" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="E12" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D13" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E13" t="s">
-        <v>58</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D14" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E14" t="s">
-        <v>14</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D15" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="E15" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -984,95 +984,95 @@
         <v>69</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E16" t="s">
-        <v>24</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D17" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E17" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="D18" t="s">
         <v>78</v>
       </c>
       <c r="E18" t="s">
-        <v>79</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="D19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
         <v>82</v>
-      </c>
-      <c r="D19" t="s">
-        <v>8</v>
-      </c>
-      <c r="E19" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="D20" t="s">
         <v>86</v>
       </c>
-      <c r="D20" t="s">
-        <v>28</v>
-      </c>
       <c r="E20" t="s">
-        <v>39</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D21" t="s">
-        <v>90</v>
+        <v>54</v>
       </c>
       <c r="E21" t="s">
         <v>91</v>
